--- a/settings/data/Attribute.xlsx
+++ b/settings/data/Attribute.xlsx
@@ -37,10 +37,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>array_string</t>
-  </si>
-  <si>
-    <t>array_float</t>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
   <si>
     <t>属性ID</t>
@@ -59,6 +59,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">组内类型
 </t>
     </r>
@@ -77,6 +84,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">获得Buff
 </t>
     </r>
@@ -93,6 +107,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Buff数值系数
 </t>
     </r>
@@ -138,7 +159,7 @@
     <t>upg_patchouli</t>
   </si>
   <si>
-    <t>[buff_max_mana_forever]</t>
+    <t>buff_max_mana_forever</t>
   </si>
   <si>
     <t>骊驹早鬼</t>
@@ -147,7 +168,7 @@
     <t>atr_saki</t>
   </si>
   <si>
-    <t>[buff_bullet_speed_forever]</t>
+    <t>buff_bullet_speed_forever</t>
   </si>
   <si>
     <t>矢田寺成美</t>
@@ -156,7 +177,7 @@
     <t>atr_narumi</t>
   </si>
   <si>
-    <t>[buff_live_disposable]</t>
+    <t>buff_live_disposable</t>
   </si>
   <si>
     <t>纯狐</t>
@@ -165,7 +186,7 @@
     <t>atr_junko</t>
   </si>
   <si>
-    <t>[buff_pyhsical_times_forever]</t>
+    <t>buff_pyhsical_times_forever</t>
   </si>
   <si>
     <t>琪斯美</t>
@@ -174,7 +195,7 @@
     <t>atr_kisumi</t>
   </si>
   <si>
-    <t>[buff_pyhsical_defense_forever]</t>
+    <t>buff_pyhsical_defense_forever</t>
   </si>
   <si>
     <t>姬虫百百世</t>
@@ -183,7 +204,7 @@
     <t>atr_momoyo</t>
   </si>
   <si>
-    <t>[buff_magical_addition_forever]</t>
+    <t>buff_magical_addition_forever</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1167,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A4" sqref="$A4:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1244,8 +1265,8 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="str">
-        <f>""""&amp;C4&amp;"_"&amp;D4&amp;""""</f>
-        <v>"atr_patchouli_base"</v>
+        <f>C4&amp;"_"&amp;D4</f>
+        <v>atr_patchouli_base</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1271,8 +1292,8 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="str">
-        <f>""""&amp;C5&amp;"_"&amp;D5&amp;""""</f>
-        <v>"atr_saki_base"</v>
+        <f>C5&amp;"_"&amp;D5</f>
+        <v>atr_saki_base</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>23</v>
@@ -1299,8 +1320,8 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="str">
-        <f>""""&amp;C6&amp;"_"&amp;D6&amp;""""</f>
-        <v>"atr_narumi_base"</v>
+        <f>C6&amp;"_"&amp;D6</f>
+        <v>atr_narumi_base</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
@@ -1327,8 +1348,8 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="str">
-        <f>""""&amp;C7&amp;"_"&amp;D7&amp;""""</f>
-        <v>"atr_junko_base"</v>
+        <f>C7&amp;"_"&amp;D7</f>
+        <v>atr_junko_base</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
@@ -1355,8 +1376,8 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="str">
-        <f>""""&amp;C8&amp;"_"&amp;D8&amp;""""</f>
-        <v>"atr_kisumi_base"</v>
+        <f>C8&amp;"_"&amp;D8</f>
+        <v>atr_kisumi_base</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -1383,8 +1404,8 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="str">
-        <f>""""&amp;C9&amp;"_"&amp;D9&amp;""""</f>
-        <v>"atr_momoyo_base"</v>
+        <f>C9&amp;"_"&amp;D9</f>
+        <v>atr_momoyo_base</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>35</v>
